--- a/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE LAS VENTAS SEMANA 51 DE DICIEMBRE-25.xlsx
+++ b/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE LAS VENTAS SEMANA 51 DE DICIEMBRE-25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8830FDC6-BF00-4A51-B356-968E509F48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482309E1-72CC-4BFC-8BBE-42D38AA75716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1065,6 +1065,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1104,26 +1125,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1133,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1159,10 +1159,74 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1185,18 +1249,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1205,18 +1261,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1225,58 +1273,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1320,14 +1320,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla110" displayName="Tabla110" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="25">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="24">
       <calculatedColumnFormula>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1339,14 +1339,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla111" displayName="Tabla111" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="23">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="22">
       <calculatedColumnFormula>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1358,14 +1358,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla112" displayName="Tabla112" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="21">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="20">
       <calculatedColumnFormula>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1377,14 +1377,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla113" displayName="Tabla113" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="19">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="18">
       <calculatedColumnFormula>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1396,14 +1396,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla114" displayName="Tabla114" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="17">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="16">
       <calculatedColumnFormula>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1415,14 +1415,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla115" displayName="Tabla115" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="15">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1729,23 +1729,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1758,14 +1758,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>2250</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -1796,17 +1796,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>31</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -1828,21 +1828,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -1861,19 +1861,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1892,19 +1892,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1926,19 +1926,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1960,19 +1960,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1991,19 +1991,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2025,19 +2025,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2056,19 +2056,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>180</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2087,19 +2087,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>172</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2118,19 +2118,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2149,17 +2149,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2178,17 +2178,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>8</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2207,17 +2207,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2239,17 +2239,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2271,17 +2271,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2303,17 +2303,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2335,17 +2335,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2367,17 +2367,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2403,7 +2403,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2425,19 +2425,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2456,17 +2456,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2485,23 +2485,23 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="31"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -2520,17 +2520,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>113</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -2552,17 +2552,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>198</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -2584,17 +2584,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>252</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -2613,17 +2613,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -2642,17 +2642,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -2671,17 +2671,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -2700,17 +2700,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>144</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -2729,17 +2729,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>95</v>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -2758,12 +2758,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2778,12 +2778,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2798,12 +2798,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2818,12 +2818,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2838,12 +2838,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2858,12 +2858,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2878,12 +2878,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2898,12 +2898,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="30"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2918,12 +2918,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2938,12 +2938,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="30"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2958,12 +2958,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2978,12 +2978,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -2998,12 +2998,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -3018,12 +3018,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -3038,12 +3038,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -3058,12 +3058,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -3078,12 +3078,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -3098,12 +3098,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3822,19 +3822,33 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3843,41 +3857,27 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3913,23 +3913,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -3942,14 +3942,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>5582</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -3980,17 +3980,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -4009,21 +4009,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>300</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4042,19 +4042,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4073,19 +4073,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>120</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4107,19 +4107,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>436.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4141,19 +4141,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4172,19 +4172,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>192</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4203,19 +4203,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>800</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4234,19 +4234,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>2882</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4265,19 +4265,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>240</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4296,19 +4296,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -4330,17 +4330,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -4362,17 +4362,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -4394,17 +4394,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>34.5</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -4426,17 +4426,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>171</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -4458,17 +4458,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -4487,17 +4487,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>100</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -4516,17 +4516,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4545,17 +4545,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -4578,7 +4578,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -4588,19 +4588,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -4610,17 +4610,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -4636,17 +4636,17 @@
       <c r="N26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -4658,15 +4658,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -4678,15 +4678,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -4698,15 +4698,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -4718,15 +4718,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -4738,15 +4738,15 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -4758,15 +4758,15 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -4778,15 +4778,15 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -4798,15 +4798,15 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -4818,10 +4818,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4838,10 +4838,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4858,10 +4858,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4878,10 +4878,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4898,10 +4898,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4918,10 +4918,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4938,10 +4938,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -4958,10 +4958,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -4978,10 +4978,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -4998,10 +4998,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5831,40 +5831,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5899,23 +5899,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -5928,14 +5928,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>1760</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -5966,17 +5966,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -5995,21 +5995,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -6031,19 +6031,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -6062,19 +6062,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="1">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -6093,19 +6093,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>130</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -6127,19 +6127,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -6161,19 +6161,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>495</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -6195,19 +6195,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -6229,19 +6229,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>198</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -6263,19 +6263,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>315</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -6294,19 +6294,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -6328,17 +6328,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -6357,17 +6357,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -6386,17 +6386,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>37</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -6415,17 +6415,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>37</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -6444,17 +6444,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
@@ -6464,17 +6464,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
@@ -6484,17 +6484,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
@@ -6504,17 +6504,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
@@ -6528,7 +6528,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
@@ -6538,19 +6538,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
@@ -6560,17 +6560,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
@@ -6586,17 +6586,17 @@
       <c r="N26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
@@ -6608,15 +6608,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
@@ -6628,15 +6628,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
@@ -6648,15 +6648,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
@@ -6668,15 +6668,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -6688,15 +6688,15 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
@@ -6708,15 +6708,15 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
@@ -6728,15 +6728,15 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
@@ -6748,15 +6748,15 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
@@ -6768,10 +6768,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6788,10 +6788,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6808,10 +6808,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6828,10 +6828,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6848,10 +6848,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6868,10 +6868,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -6888,10 +6888,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -6908,10 +6908,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -6928,10 +6928,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -6948,10 +6948,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7781,40 +7781,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7849,23 +7849,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -7878,14 +7878,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -7916,12 +7916,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -7936,21 +7936,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -7960,19 +7960,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -7982,19 +7982,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -8004,19 +8004,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -8026,19 +8026,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -8048,19 +8048,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -8070,19 +8070,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -8092,19 +8092,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -8114,19 +8114,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -8136,19 +8136,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -8158,17 +8158,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -8178,17 +8178,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -8198,17 +8198,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -8218,17 +8218,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -8238,17 +8238,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -8258,17 +8258,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -8278,17 +8278,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -8298,17 +8298,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -8322,7 +8322,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -8332,19 +8332,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -8354,17 +8354,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -8380,17 +8380,17 @@
       <c r="N26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -8402,15 +8402,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -8422,15 +8422,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -8442,15 +8442,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -8462,15 +8462,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -8482,15 +8482,15 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -8502,15 +8502,15 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -8522,15 +8522,15 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -8542,15 +8542,15 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -8562,10 +8562,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8582,10 +8582,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8602,10 +8602,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8622,10 +8622,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8642,10 +8642,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8662,10 +8662,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8682,10 +8682,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8702,10 +8702,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8722,10 +8722,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -8742,10 +8742,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9575,40 +9575,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9644,23 +9644,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -9673,14 +9673,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>3071.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -9711,19 +9711,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>24</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -9742,21 +9742,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>56</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -9778,19 +9778,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -9812,19 +9812,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -9846,19 +9846,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>221.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -9880,19 +9880,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -9914,19 +9914,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -9948,19 +9948,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -9982,19 +9982,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10016,19 +10016,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10050,19 +10050,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10084,17 +10084,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>166.5</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10113,17 +10113,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>590</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10145,17 +10145,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10174,17 +10174,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>115</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -10203,17 +10203,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>250</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -10232,17 +10232,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -10261,17 +10261,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -10293,17 +10293,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>315</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -10329,7 +10329,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -10351,19 +10351,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -10382,17 +10382,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -10420,17 +10420,17 @@
       <c r="N26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -10458,15 +10458,15 @@
       <c r="N27" s="15">
         <v>1200</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -10490,15 +10490,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -10510,15 +10510,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -10530,15 +10530,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -10550,15 +10550,15 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -10570,15 +10570,15 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -10590,15 +10590,15 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -10610,15 +10610,15 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -10630,10 +10630,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10650,10 +10650,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10670,10 +10670,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10690,10 +10690,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10710,10 +10710,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10730,10 +10730,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -10750,10 +10750,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -10770,10 +10770,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -10790,10 +10790,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -10810,10 +10810,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11643,40 +11643,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11712,23 +11712,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -11741,14 +11741,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>3847</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -11779,19 +11779,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>22</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -11813,21 +11813,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>304</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -11849,19 +11849,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -11883,19 +11883,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>4.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -11917,19 +11917,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -11951,19 +11951,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>86.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -11982,19 +11982,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>125</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12016,19 +12016,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>900</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12050,19 +12050,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12084,19 +12084,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12118,19 +12118,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>76</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12149,17 +12149,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>590</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12181,17 +12181,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>304</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12210,17 +12210,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12242,17 +12242,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>243</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12274,17 +12274,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -12303,17 +12303,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -12332,17 +12332,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -12364,17 +12364,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>522</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -12400,7 +12400,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -12419,19 +12419,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -12453,17 +12453,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -12488,17 +12488,17 @@
       <c r="N26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -12514,15 +12514,15 @@
       <c r="N27" s="15">
         <v>65</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -12538,15 +12538,15 @@
       <c r="N28" s="15">
         <v>2963</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -12558,15 +12558,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -12578,15 +12578,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -12598,15 +12598,15 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -12618,15 +12618,15 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -12638,15 +12638,15 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -12658,15 +12658,15 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -12678,10 +12678,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12698,10 +12698,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12718,10 +12718,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12738,10 +12738,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12758,10 +12758,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12778,10 +12778,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12798,10 +12798,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -12818,10 +12818,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -12838,10 +12838,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -12858,10 +12858,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13691,40 +13691,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13759,23 +13759,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -13788,14 +13788,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -13826,12 +13826,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -13846,21 +13846,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -13870,19 +13870,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -13892,19 +13892,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -13914,19 +13914,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -13936,19 +13936,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -13958,19 +13958,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -13980,19 +13980,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -14002,19 +14002,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -14024,19 +14024,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -14046,19 +14046,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -14068,17 +14068,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -14088,17 +14088,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -14108,17 +14108,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -14128,17 +14128,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -14148,17 +14148,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -14168,17 +14168,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -14188,17 +14188,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -14208,17 +14208,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -14232,7 +14232,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -14242,19 +14242,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -14264,17 +14264,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -14290,17 +14290,17 @@
       <c r="N26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -14312,15 +14312,15 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -14332,15 +14332,15 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -14352,15 +14352,15 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -14372,15 +14372,15 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -14392,15 +14392,15 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -14412,15 +14412,15 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -14432,15 +14432,15 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -14452,15 +14452,15 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46018.798324189818</v>
+        <v>46021.387257638889</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -14472,10 +14472,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14492,10 +14492,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14512,10 +14512,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14532,10 +14532,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14552,10 +14552,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14572,10 +14572,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14592,10 +14592,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14612,10 +14612,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14632,10 +14632,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14652,10 +14652,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15485,40 +15485,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
